--- a/r4-core-STU1/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-STU1/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T15:15:41+00:00</t>
+    <t>2022-04-12T15:21:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
